--- a/tests/dummy_data/dc_power_flow/PTDF/GridData.xlsx
+++ b/tests/dummy_data/dc_power_flow/PTDF/GridData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\navia\Dispa-SET\tests\dummy_data\dc_power_flow\PTDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090BDBB9-D531-4393-B2C0-621687208EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF6F50A-8EE0-403D-B594-5BF1618C9594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SlackBus" sheetId="1" r:id="rId1"/>
@@ -441,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,7 +454,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -601,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
